--- a/recursos/OBSERVACIONES CONSORCIO_17032023.xlsx
+++ b/recursos/OBSERVACIONES CONSORCIO_17032023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\consorcio_test\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevFiles\xampps\7.0.32\xampp\htdocs\consorcio_test\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44DA7F-CB36-42F8-8817-F822A8D41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -89,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +544,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8">
@@ -565,7 +555,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9">

--- a/recursos/OBSERVACIONES CONSORCIO_17032023.xlsx
+++ b/recursos/OBSERVACIONES CONSORCIO_17032023.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevFiles\xampps\7.0.32\xampp\htdocs\consorcio_test\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44DA7F-CB36-42F8-8817-F822A8D41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BA9C00-055E-498C-9E21-93751CE2E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -449,7 +458,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +486,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -500,7 +509,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4">
@@ -522,7 +531,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6">
@@ -533,7 +542,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7">
